--- a/target/test-classes/TestData/InputDataFile.xlsx
+++ b/target/test-classes/TestData/InputDataFile.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14865" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15240" windowHeight="3795"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="InputSheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -20,19 +20,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Item_Name</t>
   </si>
   <si>
-    <t>65-inch TV</t>
+    <t>Login_EmailId</t>
+  </si>
+  <si>
+    <t>Login_Password</t>
+  </si>
+  <si>
+    <t>navyashree.n13@gmail.com</t>
+  </si>
+  <si>
+    <t>na13vy02a94</t>
+  </si>
+  <si>
+    <t>Redmi Note 9 Pro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +57,22 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,10 +122,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -106,8 +135,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,30 +453,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/target/test-classes/TestData/InputDataFile.xlsx
+++ b/target/test-classes/TestData/InputDataFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15240" windowHeight="3795"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15240" windowHeight="2730"/>
   </bookViews>
   <sheets>
     <sheet name="InputSheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>na13vy02a94</t>
   </si>
   <si>
-    <t>Redmi Note 9 Pro</t>
+    <t>Redmi Note 7</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
